--- a/2022.xlsx
+++ b/2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\test-flask-python-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2A82B5-9F48-46B0-87DC-37E9293C577D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8849F08-9851-47EB-A255-9BD4B3F9A683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,9 +19,13 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -60,8 +64,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -72,6 +81,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="8"/>
       </patternFill>
     </fill>
   </fills>
@@ -223,8 +238,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,15 +460,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G1000"/>
+  <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>2.3738199999999998</v>
       </c>
@@ -473,8 +490,11 @@
       <c r="G1" s="12">
         <v>2.3842099999999999</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H1" s="14">
+        <v>2.3874399999999998</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>2.3738800000000002</v>
       </c>
@@ -496,8 +516,11 @@
       <c r="G2" s="12">
         <v>2.3843000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H2" s="14">
+        <v>2.3875500000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2.3739400000000002</v>
       </c>
@@ -519,8 +542,11 @@
       <c r="G3" s="12">
         <v>2.3843899999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="14">
+        <v>2.3876599999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2.3740000000000001</v>
       </c>
@@ -542,8 +568,11 @@
       <c r="G4" s="12">
         <v>2.3844799999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="14">
+        <v>2.3877700000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2.3740600000000001</v>
       </c>
@@ -565,8 +594,11 @@
       <c r="G5" s="12">
         <v>2.3845700000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="12">
+        <v>2.38788</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>2.37412</v>
       </c>
@@ -588,8 +620,11 @@
       <c r="G6" s="12">
         <v>2.3846599999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="12">
+        <v>2.3879899999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>2.37418</v>
       </c>
@@ -611,8 +646,11 @@
       <c r="G7" s="12">
         <v>2.3847499999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="12">
+        <v>2.3881000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>2.3742399999999999</v>
       </c>
@@ -634,8 +672,11 @@
       <c r="G8" s="12">
         <v>2.3848400000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="12">
+        <v>2.3882099999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>2.3742999999999999</v>
       </c>
@@ -657,8 +698,11 @@
       <c r="G9" s="12">
         <v>2.3849300000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="12">
+        <v>2.3883200000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>2.3743599999999998</v>
       </c>
@@ -680,8 +724,11 @@
       <c r="G10" s="12">
         <v>2.3850199999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H10" s="12">
+        <v>2.3884300000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>2.3744200000000002</v>
       </c>
@@ -700,9 +747,11 @@
       <c r="F11" s="12">
         <v>2.3824100000000001</v>
       </c>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G11" s="12">
+        <v>2.3851300000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>2.3744800000000001</v>
       </c>
@@ -721,9 +770,11 @@
       <c r="F12" s="12">
         <v>2.3824999999999998</v>
       </c>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G12" s="12">
+        <v>2.38524</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>2.3745400000000001</v>
       </c>
@@ -742,9 +793,11 @@
       <c r="F13" s="12">
         <v>2.38259</v>
       </c>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G13" s="12">
+        <v>2.3853499999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>2.3746</v>
       </c>
@@ -763,9 +816,11 @@
       <c r="F14" s="12">
         <v>2.3826800000000001</v>
       </c>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G14" s="12">
+        <v>2.3854600000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>2.37466</v>
       </c>
@@ -784,9 +839,11 @@
       <c r="F15" s="12">
         <v>2.3827699999999998</v>
       </c>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G15" s="12">
+        <v>2.38557</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>2.3747199999999999</v>
       </c>
@@ -805,7 +862,9 @@
       <c r="F16" s="12">
         <v>2.38286</v>
       </c>
-      <c r="G16" s="13"/>
+      <c r="G16" s="12">
+        <v>2.3856799999999998</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
@@ -826,7 +885,9 @@
       <c r="F17" s="12">
         <v>2.3829500000000001</v>
       </c>
-      <c r="G17" s="13"/>
+      <c r="G17" s="12">
+        <v>2.3857900000000001</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
@@ -847,7 +908,9 @@
       <c r="F18" s="12">
         <v>2.3830399999999998</v>
       </c>
-      <c r="G18" s="13"/>
+      <c r="G18" s="12">
+        <v>2.3858999999999999</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
@@ -868,7 +931,9 @@
       <c r="F19" s="12">
         <v>2.38313</v>
       </c>
-      <c r="G19" s="13"/>
+      <c r="G19" s="12">
+        <v>2.3860100000000002</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
@@ -889,7 +954,9 @@
       <c r="F20" s="12">
         <v>2.3832200000000001</v>
       </c>
-      <c r="G20" s="13"/>
+      <c r="G20" s="12">
+        <v>2.38612</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
@@ -910,7 +977,9 @@
       <c r="F21" s="12">
         <v>2.3833099999999998</v>
       </c>
-      <c r="G21" s="13"/>
+      <c r="G21" s="12">
+        <v>2.3862299999999999</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
@@ -931,7 +1000,9 @@
       <c r="F22" s="12">
         <v>2.3834</v>
       </c>
-      <c r="G22" s="13"/>
+      <c r="G22" s="12">
+        <v>2.3863400000000001</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
@@ -952,7 +1023,9 @@
       <c r="F23" s="12">
         <v>2.3834900000000001</v>
       </c>
-      <c r="G23" s="13"/>
+      <c r="G23" s="12">
+        <v>2.38645</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
@@ -973,7 +1046,9 @@
       <c r="F24" s="12">
         <v>2.3835799999999998</v>
       </c>
-      <c r="G24" s="13"/>
+      <c r="G24" s="12">
+        <v>2.3865599999999998</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
@@ -994,7 +1069,9 @@
       <c r="F25" s="12">
         <v>2.38367</v>
       </c>
-      <c r="G25" s="13"/>
+      <c r="G25" s="12">
+        <v>2.3866700000000001</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
@@ -1015,7 +1092,9 @@
       <c r="F26" s="12">
         <v>2.3837600000000001</v>
       </c>
-      <c r="G26" s="13"/>
+      <c r="G26" s="12">
+        <v>2.3867799999999999</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
@@ -1036,7 +1115,9 @@
       <c r="F27" s="12">
         <v>2.3838499999999998</v>
       </c>
-      <c r="G27" s="13"/>
+      <c r="G27" s="12">
+        <v>2.3868900000000002</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
@@ -1057,7 +1138,9 @@
       <c r="F28" s="12">
         <v>2.3839399999999999</v>
       </c>
-      <c r="G28" s="13"/>
+      <c r="G28" s="12">
+        <v>2.387</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
@@ -1076,7 +1159,9 @@
       <c r="F29" s="12">
         <v>2.3840300000000001</v>
       </c>
-      <c r="G29" s="13"/>
+      <c r="G29" s="12">
+        <v>2.3871099999999998</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
@@ -1095,9 +1180,11 @@
       <c r="F30" s="12">
         <v>2.3841199999999998</v>
       </c>
-      <c r="G30" s="13"/>
-    </row>
-    <row r="31" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="G30" s="12">
+        <v>2.3872200000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>2.3756200000000001</v>
       </c>
@@ -1109,8 +1196,10 @@
       <c r="E31" s="10">
         <v>2.3817200000000001</v>
       </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="12">
+        <v>2.38733</v>
+      </c>
     </row>
     <row r="32" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F32" s="7"/>

--- a/2022.xlsx
+++ b/2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\test-flask-python-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8849F08-9851-47EB-A255-9BD4B3F9A683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6774A0A-3E7A-4945-A8AC-10C543ABA70B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,15 +460,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1000"/>
+  <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>2.3738199999999998</v>
       </c>
@@ -493,8 +493,11 @@
       <c r="H1" s="14">
         <v>2.3874399999999998</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I1" s="12">
+        <v>2.3912900000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>2.3738800000000002</v>
       </c>
@@ -519,8 +522,11 @@
       <c r="H2" s="14">
         <v>2.3875500000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="12">
+        <v>239142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2.3739400000000002</v>
       </c>
@@ -545,8 +551,11 @@
       <c r="H3" s="14">
         <v>2.3876599999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I3" s="12">
+        <v>2.3915500000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2.3740000000000001</v>
       </c>
@@ -571,8 +580,11 @@
       <c r="H4" s="14">
         <v>2.3877700000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I4" s="12">
+        <v>2.39168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2.3740600000000001</v>
       </c>
@@ -597,8 +609,11 @@
       <c r="H5" s="12">
         <v>2.38788</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I5" s="12">
+        <v>2.39181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>2.37412</v>
       </c>
@@ -623,8 +638,11 @@
       <c r="H6" s="12">
         <v>2.3879899999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="12">
+        <v>2.39194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>2.37418</v>
       </c>
@@ -649,8 +667,11 @@
       <c r="H7" s="12">
         <v>2.3881000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="12">
+        <v>2.3920699999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>2.3742399999999999</v>
       </c>
@@ -675,8 +696,11 @@
       <c r="H8" s="12">
         <v>2.3882099999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I8" s="12">
+        <v>2.3921999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>2.3742999999999999</v>
       </c>
@@ -701,8 +725,11 @@
       <c r="H9" s="12">
         <v>2.3883200000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I9" s="12">
+        <v>2.3923299999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>2.3743599999999998</v>
       </c>
@@ -727,8 +754,11 @@
       <c r="H10" s="12">
         <v>2.3884300000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="I10" s="12">
+        <v>2.3924599999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>2.3744200000000002</v>
       </c>
@@ -750,8 +780,11 @@
       <c r="G11" s="12">
         <v>2.3851300000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H11" s="12">
+        <v>2.38856</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>2.3744800000000001</v>
       </c>
@@ -773,8 +806,11 @@
       <c r="G12" s="12">
         <v>2.38524</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H12" s="12">
+        <v>2.38869</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>2.3745400000000001</v>
       </c>
@@ -796,8 +832,11 @@
       <c r="G13" s="12">
         <v>2.3853499999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H13" s="12">
+        <v>2.3888199999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>2.3746</v>
       </c>
@@ -819,8 +858,11 @@
       <c r="G14" s="12">
         <v>2.3854600000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H14" s="12">
+        <v>2.3889499999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>2.37466</v>
       </c>
@@ -842,8 +884,11 @@
       <c r="G15" s="12">
         <v>2.38557</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H15" s="12">
+        <v>2.3890799999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>2.3747199999999999</v>
       </c>
@@ -865,8 +910,11 @@
       <c r="G16" s="12">
         <v>2.3856799999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H16" s="12">
+        <v>2.3892099999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>2.3747799999999999</v>
       </c>
@@ -888,8 +936,11 @@
       <c r="G17" s="12">
         <v>2.3857900000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H17" s="12">
+        <v>2.3893399999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>2.3748399999999998</v>
       </c>
@@ -911,8 +962,11 @@
       <c r="G18" s="12">
         <v>2.3858999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H18" s="12">
+        <v>2.3894700000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>2.3748999999999998</v>
       </c>
@@ -934,8 +988,11 @@
       <c r="G19" s="12">
         <v>2.3860100000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H19" s="12">
+        <v>2.3896000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>2.3749600000000002</v>
       </c>
@@ -957,8 +1014,11 @@
       <c r="G20" s="12">
         <v>2.38612</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H20" s="12">
+        <v>2.3897300000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>2.3750200000000001</v>
       </c>
@@ -980,8 +1040,11 @@
       <c r="G21" s="12">
         <v>2.3862299999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H21" s="12">
+        <v>2.3898600000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>2.3750800000000001</v>
       </c>
@@ -1003,8 +1066,11 @@
       <c r="G22" s="12">
         <v>2.3863400000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H22" s="12">
+        <v>2.3899900000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>2.37514</v>
       </c>
@@ -1026,8 +1092,11 @@
       <c r="G23" s="12">
         <v>2.38645</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H23" s="12">
+        <v>2.39012</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>2.3752</v>
       </c>
@@ -1049,8 +1118,11 @@
       <c r="G24" s="12">
         <v>2.3865599999999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H24" s="12">
+        <v>2.39025</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>2.3752599999999999</v>
       </c>
@@ -1072,8 +1144,11 @@
       <c r="G25" s="12">
         <v>2.3866700000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H25" s="12">
+        <v>2.3903799999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>2.3753199999999999</v>
       </c>
@@ -1095,8 +1170,11 @@
       <c r="G26" s="12">
         <v>2.3867799999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H26" s="12">
+        <v>2.3905099999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>2.3753799999999998</v>
       </c>
@@ -1118,8 +1196,11 @@
       <c r="G27" s="12">
         <v>2.3868900000000002</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H27" s="12">
+        <v>2.3906399999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>2.3754400000000002</v>
       </c>
@@ -1141,8 +1222,11 @@
       <c r="G28" s="12">
         <v>2.387</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H28" s="12">
+        <v>2.3907699999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>2.3755000000000002</v>
       </c>
@@ -1162,8 +1246,11 @@
       <c r="G29" s="12">
         <v>2.3871099999999998</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H29" s="12">
+        <v>2.3908999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>2.3755600000000001</v>
       </c>
@@ -1183,8 +1270,11 @@
       <c r="G30" s="12">
         <v>2.3872200000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H30" s="12">
+        <v>2.3910300000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>2.3756200000000001</v>
       </c>
@@ -1200,8 +1290,11 @@
       <c r="G31" s="12">
         <v>2.38733</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H31" s="12">
+        <v>2.3911600000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F32" s="7"/>
     </row>
     <row r="33" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">

--- a/2022.xlsx
+++ b/2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\test-flask-python-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6774A0A-3E7A-4945-A8AC-10C543ABA70B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7616ECD-8ED9-4369-873C-0CB10BB9C39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -198,11 +198,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -242,6 +268,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,15 +490,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I1000"/>
+  <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>2.3738199999999998</v>
       </c>
@@ -493,11 +523,14 @@
       <c r="H1" s="14">
         <v>2.3874399999999998</v>
       </c>
-      <c r="I1" s="12">
+      <c r="I1" s="15">
         <v>2.3912900000000001</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="15">
+        <v>2.3945599999999998</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>2.3738800000000002</v>
       </c>
@@ -522,11 +555,14 @@
       <c r="H2" s="14">
         <v>2.3875500000000001</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="15">
         <v>239142</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="15">
+        <v>2.39466</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2.3739400000000002</v>
       </c>
@@ -551,11 +587,14 @@
       <c r="H3" s="14">
         <v>2.3876599999999999</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="15">
         <v>2.3915500000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="15">
+        <v>2.3947600000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2.3740000000000001</v>
       </c>
@@ -580,11 +619,14 @@
       <c r="H4" s="14">
         <v>2.3877700000000002</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="15">
         <v>2.39168</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J4" s="15">
+        <v>2.39486</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2.3740600000000001</v>
       </c>
@@ -609,11 +651,14 @@
       <c r="H5" s="12">
         <v>2.38788</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="15">
         <v>2.39181</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="15">
+        <v>2.3949600000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>2.37412</v>
       </c>
@@ -638,11 +683,14 @@
       <c r="H6" s="12">
         <v>2.3879899999999998</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="15">
         <v>2.39194</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="15">
+        <v>2.39506</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>2.37418</v>
       </c>
@@ -667,11 +715,14 @@
       <c r="H7" s="12">
         <v>2.3881000000000001</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="15">
         <v>2.3920699999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="15">
+        <v>2.3951600000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>2.3742399999999999</v>
       </c>
@@ -696,11 +747,14 @@
       <c r="H8" s="12">
         <v>2.3882099999999999</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="15">
         <v>2.3921999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J8" s="15">
+        <v>2.3952599999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>2.3742999999999999</v>
       </c>
@@ -725,11 +779,14 @@
       <c r="H9" s="12">
         <v>2.3883200000000002</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="15">
         <v>2.3923299999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="15">
+        <v>2.3953600000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>2.3743599999999998</v>
       </c>
@@ -754,11 +811,14 @@
       <c r="H10" s="12">
         <v>2.3884300000000001</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="15">
         <v>2.3924599999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J10" s="15">
+        <v>2.3954599999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>2.3744200000000002</v>
       </c>
@@ -783,8 +843,12 @@
       <c r="H11" s="12">
         <v>2.38856</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="I11" s="15">
+        <v>2.39256</v>
+      </c>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>2.3744800000000001</v>
       </c>
@@ -809,8 +873,11 @@
       <c r="H12" s="12">
         <v>2.38869</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="I12" s="15">
+        <v>2.3926599999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>2.3745400000000001</v>
       </c>
@@ -835,8 +902,11 @@
       <c r="H13" s="12">
         <v>2.3888199999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="I13" s="15">
+        <v>2.39276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>2.3746</v>
       </c>
@@ -861,8 +931,11 @@
       <c r="H14" s="12">
         <v>2.3889499999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="I14" s="15">
+        <v>2.3928600000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>2.37466</v>
       </c>
@@ -887,8 +960,11 @@
       <c r="H15" s="12">
         <v>2.3890799999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="I15" s="15">
+        <v>2.39296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>2.3747199999999999</v>
       </c>
@@ -913,8 +989,11 @@
       <c r="H16" s="12">
         <v>2.3892099999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="I16" s="15">
+        <v>2.3930600000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>2.3747799999999999</v>
       </c>
@@ -939,8 +1018,11 @@
       <c r="H17" s="12">
         <v>2.3893399999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="I17" s="15">
+        <v>2.39316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>2.3748399999999998</v>
       </c>
@@ -965,8 +1047,11 @@
       <c r="H18" s="12">
         <v>2.3894700000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="I18" s="15">
+        <v>2.3932600000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>2.3748999999999998</v>
       </c>
@@ -991,8 +1076,11 @@
       <c r="H19" s="12">
         <v>2.3896000000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="I19" s="15">
+        <v>2.3933599999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>2.3749600000000002</v>
       </c>
@@ -1017,8 +1105,11 @@
       <c r="H20" s="12">
         <v>2.3897300000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="I20" s="15">
+        <v>2.3934600000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>2.3750200000000001</v>
       </c>
@@ -1043,8 +1134,11 @@
       <c r="H21" s="12">
         <v>2.3898600000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="I21" s="15">
+        <v>2.3935599999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>2.3750800000000001</v>
       </c>
@@ -1069,8 +1163,11 @@
       <c r="H22" s="12">
         <v>2.3899900000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="I22" s="15">
+        <v>2.3936600000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>2.37514</v>
       </c>
@@ -1095,8 +1192,11 @@
       <c r="H23" s="12">
         <v>2.39012</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="I23" s="15">
+        <v>2.3937599999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>2.3752</v>
       </c>
@@ -1121,8 +1221,11 @@
       <c r="H24" s="12">
         <v>2.39025</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="I24" s="15">
+        <v>2.3938600000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>2.3752599999999999</v>
       </c>
@@ -1147,8 +1250,11 @@
       <c r="H25" s="12">
         <v>2.3903799999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="I25" s="15">
+        <v>2.3939599999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>2.3753199999999999</v>
       </c>
@@ -1173,8 +1279,11 @@
       <c r="H26" s="12">
         <v>2.3905099999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="I26" s="15">
+        <v>2.3940600000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>2.3753799999999998</v>
       </c>
@@ -1199,8 +1308,11 @@
       <c r="H27" s="12">
         <v>2.3906399999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="I27" s="15">
+        <v>2.3941599999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>2.3754400000000002</v>
       </c>
@@ -1225,8 +1337,11 @@
       <c r="H28" s="12">
         <v>2.3907699999999998</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="I28" s="15">
+        <v>2.3942600000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>2.3755000000000002</v>
       </c>
@@ -1249,8 +1364,11 @@
       <c r="H29" s="12">
         <v>2.3908999999999998</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="I29" s="15">
+        <v>2.3943599999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>2.3755600000000001</v>
       </c>
@@ -1273,8 +1391,11 @@
       <c r="H30" s="12">
         <v>2.3910300000000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="I30" s="15">
+        <v>2.39446</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>2.3756200000000001</v>
       </c>
@@ -1293,8 +1414,9 @@
       <c r="H31" s="12">
         <v>2.3911600000000002</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I31" s="15"/>
+    </row>
+    <row r="32" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F32" s="7"/>
     </row>
     <row r="33" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">

--- a/2022.xlsx
+++ b/2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\test-flask-python-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7616ECD-8ED9-4369-873C-0CB10BB9C39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38706BB5-20C2-4443-B17C-C2B19A883797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,6 +25,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00000"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -90,7 +94,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -211,24 +215,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -271,7 +262,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,15 +486,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J1000"/>
+  <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>2.3738199999999998</v>
       </c>
@@ -529,8 +528,11 @@
       <c r="J1" s="15">
         <v>2.3945599999999998</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K1" s="17">
+        <v>2.3980999999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>2.3738800000000002</v>
       </c>
@@ -561,8 +563,11 @@
       <c r="J2" s="15">
         <v>2.39466</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="17">
+        <v>2.3982199999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2.3739400000000002</v>
       </c>
@@ -593,8 +598,11 @@
       <c r="J3" s="15">
         <v>2.3947600000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K3" s="17">
+        <v>2.3983400000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2.3740000000000001</v>
       </c>
@@ -625,8 +633,11 @@
       <c r="J4" s="15">
         <v>2.39486</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K4" s="17">
+        <v>2.39846</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2.3740600000000001</v>
       </c>
@@ -657,8 +668,11 @@
       <c r="J5" s="15">
         <v>2.3949600000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K5" s="17">
+        <v>2.3985799999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>2.37412</v>
       </c>
@@ -689,8 +703,11 @@
       <c r="J6" s="15">
         <v>2.39506</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K6" s="17">
+        <v>2.3986999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>2.37418</v>
       </c>
@@ -721,8 +738,11 @@
       <c r="J7" s="15">
         <v>2.3951600000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K7" s="17">
+        <v>2.3988200000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>2.3742399999999999</v>
       </c>
@@ -753,8 +773,11 @@
       <c r="J8" s="15">
         <v>2.3952599999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K8" s="17">
+        <v>2.3989400000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>2.3742999999999999</v>
       </c>
@@ -785,8 +808,11 @@
       <c r="J9" s="15">
         <v>2.3953600000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K9" s="17">
+        <v>2.39906</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>2.3743599999999998</v>
       </c>
@@ -817,8 +843,11 @@
       <c r="J10" s="15">
         <v>2.3954599999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="K10" s="17">
+        <v>2.3991799999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>2.3744200000000002</v>
       </c>
@@ -846,9 +875,12 @@
       <c r="I11" s="15">
         <v>2.39256</v>
       </c>
-      <c r="J11" s="16"/>
-    </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J11" s="16">
+        <v>2.3955799999999998</v>
+      </c>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>2.3744800000000001</v>
       </c>
@@ -876,8 +908,11 @@
       <c r="I12" s="15">
         <v>2.3926599999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J12" s="16">
+        <v>2.3957000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>2.3745400000000001</v>
       </c>
@@ -905,8 +940,11 @@
       <c r="I13" s="15">
         <v>2.39276</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J13" s="16">
+        <v>2.3958200000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>2.3746</v>
       </c>
@@ -934,8 +972,11 @@
       <c r="I14" s="15">
         <v>2.3928600000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J14" s="16">
+        <v>2.39594</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>2.37466</v>
       </c>
@@ -963,8 +1004,11 @@
       <c r="I15" s="15">
         <v>2.39296</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J15" s="16">
+        <v>2.3960599999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>2.3747199999999999</v>
       </c>
@@ -992,8 +1036,11 @@
       <c r="I16" s="15">
         <v>2.3930600000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J16" s="16">
+        <v>2.3961800000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>2.3747799999999999</v>
       </c>
@@ -1021,8 +1068,11 @@
       <c r="I17" s="15">
         <v>2.39316</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J17" s="16">
+        <v>2.3963000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>2.3748399999999998</v>
       </c>
@@ -1050,8 +1100,11 @@
       <c r="I18" s="15">
         <v>2.3932600000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J18" s="16">
+        <v>2.39642</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>2.3748999999999998</v>
       </c>
@@ -1079,8 +1132,11 @@
       <c r="I19" s="15">
         <v>2.3933599999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J19" s="16">
+        <v>2.3965399999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>2.3749600000000002</v>
       </c>
@@ -1108,8 +1164,11 @@
       <c r="I20" s="15">
         <v>2.3934600000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J20" s="16">
+        <v>2.3966599999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>2.3750200000000001</v>
       </c>
@@ -1137,8 +1196,11 @@
       <c r="I21" s="15">
         <v>2.3935599999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J21" s="16">
+        <v>2.3967800000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>2.3750800000000001</v>
       </c>
@@ -1166,8 +1228,11 @@
       <c r="I22" s="15">
         <v>2.3936600000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J22" s="16">
+        <v>2.3969</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>2.37514</v>
       </c>
@@ -1195,8 +1260,11 @@
       <c r="I23" s="15">
         <v>2.3937599999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J23" s="16">
+        <v>2.3970199999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>2.3752</v>
       </c>
@@ -1224,8 +1292,11 @@
       <c r="I24" s="15">
         <v>2.3938600000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J24" s="16">
+        <v>2.3971399999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>2.3752599999999999</v>
       </c>
@@ -1253,8 +1324,11 @@
       <c r="I25" s="15">
         <v>2.3939599999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J25" s="16">
+        <v>2.3972600000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>2.3753199999999999</v>
       </c>
@@ -1282,8 +1356,11 @@
       <c r="I26" s="15">
         <v>2.3940600000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J26" s="16">
+        <v>2.3973800000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>2.3753799999999998</v>
       </c>
@@ -1311,8 +1388,11 @@
       <c r="I27" s="15">
         <v>2.3941599999999998</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J27" s="16">
+        <v>2.3975</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>2.3754400000000002</v>
       </c>
@@ -1340,8 +1420,11 @@
       <c r="I28" s="15">
         <v>2.3942600000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J28" s="16">
+        <v>2.3976199999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>2.3755000000000002</v>
       </c>
@@ -1367,8 +1450,11 @@
       <c r="I29" s="15">
         <v>2.3943599999999998</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J29" s="16">
+        <v>2.3977400000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>2.3755600000000001</v>
       </c>
@@ -1394,8 +1480,11 @@
       <c r="I30" s="15">
         <v>2.39446</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J30" s="16">
+        <v>2.3978600000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>2.3756200000000001</v>
       </c>
@@ -1415,8 +1504,11 @@
         <v>2.3911600000000002</v>
       </c>
       <c r="I31" s="15"/>
-    </row>
-    <row r="32" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J31" s="16">
+        <v>2.39798</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F32" s="7"/>
     </row>
     <row r="33" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">

--- a/2022.xlsx
+++ b/2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\test-flask-python-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38706BB5-20C2-4443-B17C-C2B19A883797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30214CF5-6125-4503-A62C-41C4B55BEAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -219,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -268,6 +268,7 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,10 +487,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K1000"/>
+  <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -497,7 +498,7 @@
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>2.3738199999999998</v>
       </c>
@@ -531,8 +532,11 @@
       <c r="K1" s="17">
         <v>2.3980999999999999</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="17">
+        <v>2.4031600000000002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>2.3738800000000002</v>
       </c>
@@ -566,8 +570,11 @@
       <c r="K2" s="17">
         <v>2.3982199999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="17">
+        <v>2.40334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2.3739400000000002</v>
       </c>
@@ -601,8 +608,11 @@
       <c r="K3" s="17">
         <v>2.3983400000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L3" s="17">
+        <v>2.4035199999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2.3740000000000001</v>
       </c>
@@ -636,8 +646,11 @@
       <c r="K4" s="17">
         <v>2.39846</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L4" s="17">
+        <v>2.4037000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2.3740600000000001</v>
       </c>
@@ -671,8 +684,11 @@
       <c r="K5" s="17">
         <v>2.3985799999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="17">
+        <v>2.40388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>2.37412</v>
       </c>
@@ -706,8 +722,11 @@
       <c r="K6" s="17">
         <v>2.3986999999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="17">
+        <v>2.4040599999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>2.37418</v>
       </c>
@@ -741,8 +760,11 @@
       <c r="K7" s="17">
         <v>2.3988200000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="17">
+        <v>2.4042400000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>2.3742399999999999</v>
       </c>
@@ -776,8 +798,11 @@
       <c r="K8" s="17">
         <v>2.3989400000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="17">
+        <v>2.40442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>2.3742999999999999</v>
       </c>
@@ -811,8 +836,11 @@
       <c r="K9" s="17">
         <v>2.39906</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L9" s="17">
+        <v>2.4045999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>2.3743599999999998</v>
       </c>
@@ -846,8 +874,11 @@
       <c r="K10" s="17">
         <v>2.3991799999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="L10" s="17">
+        <v>2.4047800000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>2.3744200000000002</v>
       </c>
@@ -878,9 +909,11 @@
       <c r="J11" s="16">
         <v>2.3955799999999998</v>
       </c>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="K11" s="17">
+        <v>2.3993699999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>2.3744800000000001</v>
       </c>
@@ -911,8 +944,11 @@
       <c r="J12" s="16">
         <v>2.3957000000000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="K12" s="17">
+        <v>2.3995600000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>2.3745400000000001</v>
       </c>
@@ -943,8 +979,11 @@
       <c r="J13" s="16">
         <v>2.3958200000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="K13" s="17">
+        <v>2.39975</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>2.3746</v>
       </c>
@@ -975,8 +1014,11 @@
       <c r="J14" s="16">
         <v>2.39594</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="K14" s="17">
+        <v>2.39994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>2.37466</v>
       </c>
@@ -1007,8 +1049,11 @@
       <c r="J15" s="16">
         <v>2.3960599999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="K15" s="17">
+        <v>2.4001299999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>2.3747199999999999</v>
       </c>
@@ -1039,8 +1084,11 @@
       <c r="J16" s="16">
         <v>2.3961800000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="K16" s="17">
+        <v>2.4003199999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>2.3747799999999999</v>
       </c>
@@ -1071,8 +1119,11 @@
       <c r="J17" s="16">
         <v>2.3963000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="K17" s="17">
+        <v>2.4005100000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>2.3748399999999998</v>
       </c>
@@ -1103,8 +1154,11 @@
       <c r="J18" s="16">
         <v>2.39642</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="K18" s="17">
+        <v>2.4007000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>2.3748999999999998</v>
       </c>
@@ -1135,8 +1189,11 @@
       <c r="J19" s="16">
         <v>2.3965399999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="K19" s="17">
+        <v>2.40089</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>2.3749600000000002</v>
       </c>
@@ -1167,8 +1224,11 @@
       <c r="J20" s="16">
         <v>2.3966599999999998</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="K20" s="17">
+        <v>2.4010799999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>2.3750200000000001</v>
       </c>
@@ -1199,8 +1259,11 @@
       <c r="J21" s="16">
         <v>2.3967800000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="K21" s="17">
+        <v>2.4012699999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>2.3750800000000001</v>
       </c>
@@ -1231,8 +1294,11 @@
       <c r="J22" s="16">
         <v>2.3969</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="K22" s="17">
+        <v>2.4014600000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>2.37514</v>
       </c>
@@ -1263,8 +1329,11 @@
       <c r="J23" s="16">
         <v>2.3970199999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="K23" s="17">
+        <v>2.4016500000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>2.3752</v>
       </c>
@@ -1295,8 +1364,11 @@
       <c r="J24" s="16">
         <v>2.3971399999999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="K24" s="17">
+        <v>2.40184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>2.3752599999999999</v>
       </c>
@@ -1327,8 +1399,11 @@
       <c r="J25" s="16">
         <v>2.3972600000000002</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="K25" s="17">
+        <v>2.4020299999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>2.3753199999999999</v>
       </c>
@@ -1359,8 +1434,11 @@
       <c r="J26" s="16">
         <v>2.3973800000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="K26" s="17">
+        <v>2.4022199999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>2.3753799999999998</v>
       </c>
@@ -1391,8 +1469,11 @@
       <c r="J27" s="16">
         <v>2.3975</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="K27" s="17">
+        <v>2.4024100000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>2.3754400000000002</v>
       </c>
@@ -1423,8 +1504,11 @@
       <c r="J28" s="16">
         <v>2.3976199999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="K28" s="17">
+        <v>2.4026000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>2.3755000000000002</v>
       </c>
@@ -1453,8 +1537,11 @@
       <c r="J29" s="16">
         <v>2.3977400000000002</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="K29" s="17">
+        <v>2.40279</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>2.3755600000000001</v>
       </c>
@@ -1483,8 +1570,11 @@
       <c r="J30" s="16">
         <v>2.3978600000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="K30" s="17">
+        <v>2.4029799999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>2.3756200000000001</v>
       </c>
@@ -1507,8 +1597,9 @@
       <c r="J31" s="16">
         <v>2.39798</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="K31" s="18"/>
+    </row>
+    <row r="32" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F32" s="7"/>
     </row>
     <row r="33" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">

--- a/2022.xlsx
+++ b/2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\test-flask-python-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30214CF5-6125-4503-A62C-41C4B55BEAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E8B858-691D-4485-955E-A428AD3BA560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="#,##0.00000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -72,6 +72,11 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -216,8 +221,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -268,10 +274,11 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{02388E29-4BDE-4874-A1DD-9B9FFBABF3CD}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -487,10 +494,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L1000"/>
+  <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -498,7 +505,7 @@
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>2.3738199999999998</v>
       </c>
@@ -536,7 +543,7 @@
         <v>2.4031600000000002</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>2.3738800000000002</v>
       </c>
@@ -574,7 +581,7 @@
         <v>2.40334</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2.3739400000000002</v>
       </c>
@@ -612,7 +619,7 @@
         <v>2.4035199999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2.3740000000000001</v>
       </c>
@@ -650,7 +657,7 @@
         <v>2.4037000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2.3740600000000001</v>
       </c>
@@ -688,7 +695,7 @@
         <v>2.40388</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>2.37412</v>
       </c>
@@ -726,7 +733,7 @@
         <v>2.4040599999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>2.37418</v>
       </c>
@@ -764,7 +771,7 @@
         <v>2.4042400000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>2.3742399999999999</v>
       </c>
@@ -802,7 +809,7 @@
         <v>2.40442</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>2.3742999999999999</v>
       </c>
@@ -840,7 +847,7 @@
         <v>2.4045999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>2.3743599999999998</v>
       </c>
@@ -878,7 +885,7 @@
         <v>2.4047800000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>2.3744200000000002</v>
       </c>
@@ -912,8 +919,12 @@
       <c r="K11" s="17">
         <v>2.3993699999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="L11" s="17">
+        <v>2.4049800000000001</v>
+      </c>
+      <c r="M11" s="17"/>
+    </row>
+    <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>2.3744800000000001</v>
       </c>
@@ -947,8 +958,11 @@
       <c r="K12" s="17">
         <v>2.3995600000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="L12" s="17">
+        <v>2.4051800000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>2.3745400000000001</v>
       </c>
@@ -982,8 +996,11 @@
       <c r="K13" s="17">
         <v>2.39975</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="L13" s="17">
+        <v>2.4053800000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>2.3746</v>
       </c>
@@ -1017,8 +1034,11 @@
       <c r="K14" s="17">
         <v>2.39994</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="L14" s="17">
+        <v>2.4055800000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>2.37466</v>
       </c>
@@ -1052,8 +1072,11 @@
       <c r="K15" s="17">
         <v>2.4001299999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="L15" s="17">
+        <v>2.40578</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>2.3747199999999999</v>
       </c>
@@ -1087,8 +1110,11 @@
       <c r="K16" s="17">
         <v>2.4003199999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="L16" s="17">
+        <v>2.40598</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>2.3747799999999999</v>
       </c>
@@ -1122,8 +1148,11 @@
       <c r="K17" s="17">
         <v>2.4005100000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="L17" s="17">
+        <v>2.40618</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>2.3748399999999998</v>
       </c>
@@ -1157,8 +1186,11 @@
       <c r="K18" s="17">
         <v>2.4007000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="L18" s="17">
+        <v>2.40638</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>2.3748999999999998</v>
       </c>
@@ -1192,8 +1224,11 @@
       <c r="K19" s="17">
         <v>2.40089</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="L19" s="17">
+        <v>2.4065799999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>2.3749600000000002</v>
       </c>
@@ -1227,8 +1262,11 @@
       <c r="K20" s="17">
         <v>2.4010799999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="L20" s="17">
+        <v>2.4067799999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>2.3750200000000001</v>
       </c>
@@ -1262,8 +1300,11 @@
       <c r="K21" s="17">
         <v>2.4012699999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="L21" s="17">
+        <v>2.4069799999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>2.3750800000000001</v>
       </c>
@@ -1297,8 +1338,11 @@
       <c r="K22" s="17">
         <v>2.4014600000000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="L22" s="17">
+        <v>2.4071799999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>2.37514</v>
       </c>
@@ -1332,8 +1376,11 @@
       <c r="K23" s="17">
         <v>2.4016500000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="L23" s="17">
+        <v>2.4073799999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>2.3752</v>
       </c>
@@ -1367,8 +1414,11 @@
       <c r="K24" s="17">
         <v>2.40184</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="L24" s="17">
+        <v>2.4075799999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>2.3752599999999999</v>
       </c>
@@ -1402,8 +1452,11 @@
       <c r="K25" s="17">
         <v>2.4020299999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="L25" s="17">
+        <v>2.4077799999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>2.3753199999999999</v>
       </c>
@@ -1437,8 +1490,11 @@
       <c r="K26" s="17">
         <v>2.4022199999999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="L26" s="17">
+        <v>2.4079799999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>2.3753799999999998</v>
       </c>
@@ -1472,8 +1528,11 @@
       <c r="K27" s="17">
         <v>2.4024100000000002</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="L27" s="17">
+        <v>2.4081800000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>2.3754400000000002</v>
       </c>
@@ -1507,8 +1566,11 @@
       <c r="K28" s="17">
         <v>2.4026000000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="L28" s="17">
+        <v>2.4083800000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>2.3755000000000002</v>
       </c>
@@ -1540,8 +1602,11 @@
       <c r="K29" s="17">
         <v>2.40279</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="L29" s="17">
+        <v>2.4085800000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>2.3755600000000001</v>
       </c>
@@ -1573,8 +1638,11 @@
       <c r="K30" s="17">
         <v>2.4029799999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="L30" s="17">
+        <v>2.4087800000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>2.3756200000000001</v>
       </c>
@@ -1598,8 +1666,11 @@
         <v>2.39798</v>
       </c>
       <c r="K31" s="18"/>
-    </row>
-    <row r="32" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L31" s="17">
+        <v>2.4089800000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F32" s="7"/>
     </row>
     <row r="33" spans="6:6" ht="13.2" x14ac:dyDescent="0.25">
